--- a/tests/TestData.xlsx
+++ b/tests/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keenan\Desktop\Git\WordscapesCheater\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8E8AC1-7BEF-4DAC-9AAB-0A6C4C285D2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C78B940-5A3E-428E-9A20-B515994DEF7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="3075" windowWidth="29040" windowHeight="15840" xr2:uid="{645AFBB4-1C9B-4A6E-8F12-81D46556A45D}"/>
   </bookViews>

--- a/tests/TestData.xlsx
+++ b/tests/TestData.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keenan\Desktop\Git\WordscapesCheater\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C78B940-5A3E-428E-9A20-B515994DEF7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41A8504-BF1C-423C-980F-55B2D95ED386}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="3075" windowWidth="29040" windowHeight="15840" xr2:uid="{645AFBB4-1C9B-4A6E-8F12-81D46556A45D}"/>
+    <workbookView xWindow="20370" yWindow="3075" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{645AFBB4-1C9B-4A6E-8F12-81D46556A45D}"/>
   </bookViews>
   <sheets>
     <sheet name="Occurrence Array" sheetId="1" r:id="rId1"/>
+    <sheet name="Matching Words Array" sheetId="2" r:id="rId2"/>
+    <sheet name="Print Matching Words" sheetId="4" r:id="rId3"/>
+    <sheet name="Test if Matching" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Test Case #</t>
   </si>
@@ -121,6 +124,84 @@
   </si>
   <si>
     <t>Nothing is returned</t>
+  </si>
+  <si>
+    <t>Pass a valid string, and a string array of matching words is returned</t>
+  </si>
+  <si>
+    <t>A valid string array is returned</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>An empty string is passed, and an empty string array is returned</t>
+  </si>
+  <si>
+    <t>A string of spaces is passed, and an empty string array is returned</t>
+  </si>
+  <si>
+    <t>A valid array is returned</t>
+  </si>
+  <si>
+    <t>A valid string of upper and lower case is passed, and a valid string is returned</t>
+  </si>
+  <si>
+    <t>An invalid string of letters and unicode is passed, and an invalid string array is returned</t>
+  </si>
+  <si>
+    <t>An invalid string of unicode is passed, and no array is returned</t>
+  </si>
+  <si>
+    <t>Letters and numbers are passed, and an incorrect array is returned</t>
+  </si>
+  <si>
+    <t>An invalid string of letters and spaces is passed, and an invalid array is returned</t>
+  </si>
+  <si>
+    <t>1. Pass the string
+2. Run the function
+3. Check if the array that is returned is valid</t>
+  </si>
+  <si>
+    <t>1. Pass the string
+2. Run the function
+3. Check if the array that is returned is invalid</t>
+  </si>
+  <si>
+    <t>1. Pass the string
+2. Run the function
+3. Check that no array is returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass 2 valid int arrays, and check if it returns true </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass 1 </t>
+  </si>
+  <si>
+    <t>Pass an empty string array, and the valid line should be printed</t>
+  </si>
+  <si>
+    <t>Pass a valid string array of length 1, and the word should be printed</t>
+  </si>
+  <si>
+    <t>Pass a valid string array of length 5, and each word should be print</t>
+  </si>
+  <si>
+    <t>Pass an invalid string array with string containing characters other than letters</t>
+  </si>
+  <si>
+    <t>"No words could be found that match what you asked for" should be printed</t>
+  </si>
+  <si>
+    <t>The word should be printed</t>
+  </si>
+  <si>
+    <t>All 5 words should be printed</t>
+  </si>
+  <si>
+    <t>The invalid strings should be printed</t>
   </si>
 </sst>
 </file>
@@ -477,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10926AE-39F6-441B-A2E2-63C508AD3FA7}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -656,6 +737,473 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06451F08-E015-446B-A4F4-D964BF39E08D}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B82C9C4-9AF8-4F51-A0E3-88571335C15A}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ADF118-DFB7-45C6-9DD1-E81A0BCAAA4A}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
